--- a/public/yes.xlsx
+++ b/public/yes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jk\Desktop\gpt\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43799257-D72B-437C-8068-CD29846AC683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24DB72A-3398-4DA9-8A61-A1990D29CF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12960" yWindow="2055" windowWidth="26955" windowHeight="18330" xr2:uid="{6741474A-BA04-448E-8FA3-BEC40249F21C}"/>
+    <workbookView xWindow="13305" yWindow="2400" windowWidth="26955" windowHeight="18330" xr2:uid="{6741474A-BA04-448E-8FA3-BEC40249F21C}"/>
   </bookViews>
   <sheets>
     <sheet name="yes" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>https://www.praktiker.hu/</t>
   </si>
   <si>
@@ -200,6 +191,15 @@
   </si>
   <si>
     <t>A43a77097</t>
+  </si>
+  <si>
+    <t>Website URL</t>
+  </si>
+  <si>
+    <t>Company name</t>
+  </si>
+  <si>
+    <t>Record ID</t>
   </si>
 </sst>
 </file>
@@ -1062,49 +1062,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EC5063-D036-40A4-8D6A-FEE065681BBD}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>45935689</v>
@@ -1112,189 +1114,189 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
         <v>56</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
